--- a/database.xlsx
+++ b/database.xlsx
@@ -507,7 +507,6 @@
           <t>1111</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -525,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30.12.2024</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +569,6 @@
           <t>1111-1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -588,7 +586,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30.12.2024</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -633,7 +631,6 @@
           <t>1111-2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -651,7 +648,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>30.12.2024</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -696,7 +693,6 @@
           <t>1111-3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -714,7 +710,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>30.12.2024</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -759,7 +755,6 @@
           <t>1111-4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -777,7 +772,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30.12.2024</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">

--- a/database.xlsx
+++ b/database.xlsx
@@ -507,6 +507,7 @@
           <t>1111</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -569,6 +570,7 @@
           <t>1111-1</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -631,6 +633,7 @@
           <t>1111-2</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -693,6 +696,7 @@
           <t>1111-3</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>
@@ -755,6 +759,7 @@
           <t>1111-4</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>Карпов Д.В</t>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>30.12.2024</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>30.12.2024</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>30.12.2024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>30.12.2024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -777,42 +777,105 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>30.12.2024</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Колотушкина 8</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>чипсы</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>свежие</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1111-5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Карпов Д.В</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+7 (986) 707-47-78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>01.12.2024</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30.12.2024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Колотушкина 8</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>чипсы</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>икра</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>упаковки</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>300.00</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>свежие</t>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>красная</t>
         </is>
       </c>
     </row>
